--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.194402</v>
+        <v>23.15497</v>
       </c>
       <c r="H2">
-        <v>46.388804</v>
+        <v>46.30994</v>
       </c>
       <c r="I2">
-        <v>0.5171730845306807</v>
+        <v>0.9101640992685882</v>
       </c>
       <c r="J2">
-        <v>0.4200517654029275</v>
+        <v>0.8907304479989506</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.437025499999999</v>
+        <v>33.9967575</v>
       </c>
       <c r="N2">
-        <v>10.874051</v>
+        <v>67.993515</v>
       </c>
       <c r="O2">
-        <v>0.0412690981875492</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P2">
-        <v>0.0335329617600088</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q2">
-        <v>126.108555131251</v>
+        <v>787.193900009775</v>
       </c>
       <c r="R2">
-        <v>504.4342205250039</v>
+        <v>3148.7756000391</v>
       </c>
       <c r="S2">
-        <v>0.02134326680545435</v>
+        <v>0.1579018200634252</v>
       </c>
       <c r="T2">
-        <v>0.01408557978648056</v>
+        <v>0.1394590319264416</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.194402</v>
+        <v>23.15497</v>
       </c>
       <c r="H3">
-        <v>46.388804</v>
+        <v>46.30994</v>
       </c>
       <c r="I3">
-        <v>0.5171730845306807</v>
+        <v>0.9101640992685882</v>
       </c>
       <c r="J3">
-        <v>0.4200517654029275</v>
+        <v>0.8907304479989506</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.07421266666667</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N3">
         <v>126.222638</v>
       </c>
       <c r="O3">
-        <v>0.3193593286815545</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P3">
-        <v>0.3892403018250912</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q3">
-        <v>975.8862024241587</v>
+        <v>974.2271320702865</v>
       </c>
       <c r="R3">
-        <v>5855.317214544953</v>
+        <v>5845.362792421719</v>
       </c>
       <c r="S3">
-        <v>0.165164049087887</v>
+        <v>0.1954184824185743</v>
       </c>
       <c r="T3">
-        <v>0.1635010759475979</v>
+        <v>0.258890673657358</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.194402</v>
+        <v>23.15497</v>
       </c>
       <c r="H4">
-        <v>46.388804</v>
+        <v>46.30994</v>
       </c>
       <c r="I4">
-        <v>0.5171730845306807</v>
+        <v>0.9101640992685882</v>
       </c>
       <c r="J4">
-        <v>0.4200517654029275</v>
+        <v>0.8907304479989506</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.01285266666666667</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N4">
-        <v>0.038558</v>
+        <v>0.329168</v>
       </c>
       <c r="O4">
-        <v>9.755664427884464E-05</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P4">
-        <v>0.0001189036118685133</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q4">
-        <v>0.2981099174386666</v>
+        <v>2.540625054986667</v>
       </c>
       <c r="R4">
-        <v>1.788659504632</v>
+        <v>15.24375032992</v>
       </c>
       <c r="S4">
-        <v>5.045367063815247E-05</v>
+        <v>0.0005096194473510946</v>
       </c>
       <c r="T4">
-        <v>4.994567207815351E-05</v>
+        <v>0.0006751445431400765</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.194402</v>
+        <v>23.15497</v>
       </c>
       <c r="H5">
-        <v>46.388804</v>
+        <v>46.30994</v>
       </c>
       <c r="I5">
-        <v>0.5171730845306807</v>
+        <v>0.9101640992685882</v>
       </c>
       <c r="J5">
-        <v>0.4200517654029275</v>
+        <v>0.8907304479989506</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.52055350000001</v>
+        <v>119.609489</v>
       </c>
       <c r="N5">
-        <v>131.041107</v>
+        <v>239.218978</v>
       </c>
       <c r="O5">
-        <v>0.4973260021852153</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P5">
-        <v>0.4040993030123017</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q5">
-        <v>1519.710057141507</v>
+        <v>2769.55412951033</v>
       </c>
       <c r="R5">
-        <v>6078.840228566029</v>
+        <v>11078.21651804132</v>
       </c>
       <c r="S5">
-        <v>0.2572036225674398</v>
+        <v>0.5555399220045097</v>
       </c>
       <c r="T5">
-        <v>0.1697426256284099</v>
+        <v>0.4906533673147024</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,108 +788,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.194402</v>
+        <v>23.15497</v>
       </c>
       <c r="H6">
-        <v>46.388804</v>
+        <v>46.30994</v>
       </c>
       <c r="I6">
-        <v>0.5171730845306807</v>
+        <v>0.9101640992685882</v>
       </c>
       <c r="J6">
-        <v>0.4200517654029275</v>
+        <v>0.8907304479989506</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>18.57371366666667</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N6">
-        <v>55.721141</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O6">
-        <v>0.1409815740273963</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P6">
-        <v>0.1718306167937836</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q6">
-        <v>430.8061814175607</v>
+        <v>3.959631081496666</v>
       </c>
       <c r="R6">
-        <v>2584.837088505364</v>
+        <v>23.75778648898</v>
       </c>
       <c r="S6">
-        <v>0.07291187550173903</v>
+        <v>0.0007942553347279092</v>
       </c>
       <c r="T6">
-        <v>0.07217775393450271</v>
+        <v>0.001052230557308403</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.194402</v>
+        <v>1.072851</v>
       </c>
       <c r="H7">
-        <v>46.388804</v>
+        <v>3.218553</v>
       </c>
       <c r="I7">
-        <v>0.5171730845306807</v>
+        <v>0.04217109605688991</v>
       </c>
       <c r="J7">
-        <v>0.4200517654029275</v>
+        <v>0.06190600021503734</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1273243333333333</v>
+        <v>33.9967575</v>
       </c>
       <c r="N7">
-        <v>0.381973</v>
+        <v>67.993515</v>
       </c>
       <c r="O7">
-        <v>0.0009664402740059944</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P7">
-        <v>0.001177912996946202</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q7">
-        <v>2.953211771715333</v>
+        <v>36.4734552806325</v>
       </c>
       <c r="R7">
-        <v>17.719270630292</v>
+        <v>218.840731683795</v>
       </c>
       <c r="S7">
-        <v>0.0004998168975223563</v>
+        <v>0.007316145326764222</v>
       </c>
       <c r="T7">
-        <v>0.0004947844338583053</v>
+        <v>0.009692439367961703</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +918,40 @@
         <v>3.218553</v>
       </c>
       <c r="I8">
-        <v>0.02392170580262536</v>
+        <v>0.04217109605688991</v>
       </c>
       <c r="J8">
-        <v>0.02914407687020533</v>
+        <v>0.06190600021503734</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.437025499999999</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N8">
-        <v>10.874051</v>
+        <v>126.222638</v>
       </c>
       <c r="O8">
-        <v>0.0412690981875492</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P8">
-        <v>0.0335329617600088</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q8">
-        <v>5.833118244700499</v>
+        <v>45.13936113364599</v>
       </c>
       <c r="R8">
-        <v>34.998709468203</v>
+        <v>406.254250202814</v>
       </c>
       <c r="S8">
-        <v>0.0009872272255822116</v>
+        <v>0.009054423922002484</v>
       </c>
       <c r="T8">
-        <v>0.0009772872152193522</v>
+        <v>0.01799296985424535</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +980,40 @@
         <v>3.218553</v>
       </c>
       <c r="I9">
-        <v>0.02392170580262536</v>
+        <v>0.04217109605688991</v>
       </c>
       <c r="J9">
-        <v>0.02914407687020533</v>
+        <v>0.06190600021503734</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>42.07421266666667</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N9">
-        <v>126.222638</v>
+        <v>0.329168</v>
       </c>
       <c r="O9">
-        <v>0.3193593286815545</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P9">
-        <v>0.3892403018250912</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q9">
-        <v>45.139361133646</v>
+        <v>0.117716072656</v>
       </c>
       <c r="R9">
-        <v>406.254250202814</v>
+        <v>1.059444653904</v>
       </c>
       <c r="S9">
-        <v>0.007639619906044084</v>
+        <v>2.361245701074409E-05</v>
       </c>
       <c r="T9">
-        <v>0.01134404927737238</v>
+        <v>4.6922723172544E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1042,40 @@
         <v>3.218553</v>
       </c>
       <c r="I10">
-        <v>0.02392170580262536</v>
+        <v>0.04217109605688991</v>
       </c>
       <c r="J10">
-        <v>0.02914407687020533</v>
+        <v>0.06190600021503734</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01285266666666667</v>
+        <v>119.609489</v>
       </c>
       <c r="N10">
-        <v>0.038558</v>
+        <v>239.218978</v>
       </c>
       <c r="O10">
-        <v>9.755664427884464E-05</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P10">
-        <v>0.0001189036118685133</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q10">
-        <v>0.013788996286</v>
+        <v>128.323159883139</v>
       </c>
       <c r="R10">
-        <v>0.124100966574</v>
+        <v>769.938959298834</v>
       </c>
       <c r="S10">
-        <v>2.333721343529896E-06</v>
+        <v>0.02574011371478608</v>
       </c>
       <c r="T10">
-        <v>3.465336004441012E-06</v>
+        <v>0.03410053796940436</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1104,45 @@
         <v>3.218553</v>
       </c>
       <c r="I11">
-        <v>0.02392170580262536</v>
+        <v>0.04217109605688991</v>
       </c>
       <c r="J11">
-        <v>0.02914407687020533</v>
+        <v>0.06190600021503734</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>65.52055350000001</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N11">
-        <v>131.041107</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O11">
-        <v>0.4973260021852153</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P11">
-        <v>0.4040993030123017</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q11">
-        <v>70.2937913430285</v>
+        <v>0.183463600489</v>
       </c>
       <c r="R11">
-        <v>421.762748058171</v>
+        <v>1.651172404401</v>
       </c>
       <c r="S11">
-        <v>0.01189688631227054</v>
+        <v>3.680063632637711E-05</v>
       </c>
       <c r="T11">
-        <v>0.01177710115018692</v>
+        <v>7.313030025339341E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1154,117 +1151,117 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.072851</v>
+        <v>1.175363</v>
       </c>
       <c r="H12">
-        <v>3.218553</v>
+        <v>2.350726</v>
       </c>
       <c r="I12">
-        <v>0.02392170580262536</v>
+        <v>0.04620058701041831</v>
       </c>
       <c r="J12">
-        <v>0.02914407687020533</v>
+        <v>0.045214120836753</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.57371366666667</v>
+        <v>33.9967575</v>
       </c>
       <c r="N12">
-        <v>55.721141</v>
+        <v>67.993515</v>
       </c>
       <c r="O12">
-        <v>0.1409815740273963</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P12">
-        <v>0.1718306167937836</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q12">
-        <v>19.926827280997</v>
+        <v>39.9585308854725</v>
       </c>
       <c r="R12">
-        <v>179.341445528973</v>
+        <v>159.83412354189</v>
       </c>
       <c r="S12">
-        <v>0.003372519737474423</v>
+        <v>0.008015210425027871</v>
       </c>
       <c r="T12">
-        <v>0.005007844704492823</v>
+        <v>0.007079041179589443</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.175363</v>
+      </c>
+      <c r="H13">
+        <v>2.350726</v>
+      </c>
+      <c r="I13">
+        <v>0.04620058701041831</v>
+      </c>
+      <c r="J13">
+        <v>0.045214120836753</v>
+      </c>
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.072851</v>
-      </c>
-      <c r="H13">
-        <v>3.218553</v>
-      </c>
-      <c r="I13">
-        <v>0.02392170580262536</v>
-      </c>
-      <c r="J13">
-        <v>0.02914407687020533</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1273243333333333</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N13">
-        <v>0.381973</v>
+        <v>126.222638</v>
       </c>
       <c r="O13">
-        <v>0.0009664402740059944</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P13">
-        <v>0.001177912996946202</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q13">
-        <v>0.136600038341</v>
+        <v>49.45247282253133</v>
       </c>
       <c r="R13">
-        <v>1.229400345069</v>
+        <v>296.714836935188</v>
       </c>
       <c r="S13">
-        <v>2.311889991058004E-05</v>
+        <v>0.009919583301163539</v>
       </c>
       <c r="T13">
-        <v>3.432918692941404E-05</v>
+        <v>0.01314147756883007</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1275,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1287,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9149725</v>
+        <v>1.175363</v>
       </c>
       <c r="H14">
-        <v>1.829945</v>
+        <v>2.350726</v>
       </c>
       <c r="I14">
-        <v>0.02040143781614841</v>
+        <v>0.04620058701041831</v>
       </c>
       <c r="J14">
-        <v>0.01657019715016279</v>
+        <v>0.045214120836753</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>5.437025499999999</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N14">
-        <v>10.874051</v>
+        <v>0.329168</v>
       </c>
       <c r="O14">
-        <v>0.0412690981875492</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P14">
-        <v>0.0335329617600088</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q14">
-        <v>4.974728814298749</v>
+        <v>0.1289639626613333</v>
       </c>
       <c r="R14">
-        <v>19.898915257195</v>
+        <v>0.773783775968</v>
       </c>
       <c r="S14">
-        <v>0.000841948940401808</v>
+        <v>2.586865120088364E-05</v>
       </c>
       <c r="T14">
-        <v>0.0005556477873922155</v>
+        <v>3.427082460736289E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1337,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1349,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9149725</v>
+        <v>1.175363</v>
       </c>
       <c r="H15">
-        <v>1.829945</v>
+        <v>2.350726</v>
       </c>
       <c r="I15">
-        <v>0.02040143781614841</v>
+        <v>0.04620058701041831</v>
       </c>
       <c r="J15">
-        <v>0.01657019715016279</v>
+        <v>0.045214120836753</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>42.07421266666667</v>
+        <v>119.609489</v>
       </c>
       <c r="N15">
-        <v>126.222638</v>
+        <v>239.218978</v>
       </c>
       <c r="O15">
-        <v>0.3193593286815545</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P15">
-        <v>0.3892403018250912</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q15">
-        <v>38.49674754915166</v>
+        <v>140.584567819507</v>
       </c>
       <c r="R15">
-        <v>230.98048529491</v>
+        <v>562.3382712780279</v>
       </c>
       <c r="S15">
-        <v>0.006515389485103635</v>
+        <v>0.02819960765861439</v>
       </c>
       <c r="T15">
-        <v>0.006449788540030628</v>
+        <v>0.02490591928070348</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1399,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9149725</v>
+        <v>1.175363</v>
       </c>
       <c r="H16">
-        <v>1.829945</v>
+        <v>2.350726</v>
       </c>
       <c r="I16">
-        <v>0.02040143781614841</v>
+        <v>0.04620058701041831</v>
       </c>
       <c r="J16">
-        <v>0.01657019715016279</v>
+        <v>0.045214120836753</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,33 +1426,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01285266666666667</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N16">
-        <v>0.038558</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O16">
-        <v>9.755664427884464E-05</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P16">
-        <v>0.0001189036118685133</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q16">
-        <v>0.01175983655166666</v>
+        <v>0.2009937333903333</v>
       </c>
       <c r="R16">
-        <v>0.07055901930999998</v>
+        <v>1.205962400342</v>
       </c>
       <c r="S16">
-        <v>1.990295811806959E-06</v>
+        <v>4.031697441161873E-05</v>
       </c>
       <c r="T16">
-        <v>1.970256290527702E-06</v>
+        <v>5.341198302263734E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1464,25 +1461,25 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.9149725</v>
+        <v>0.03725033333333334</v>
       </c>
       <c r="H17">
-        <v>1.829945</v>
+        <v>0.111751</v>
       </c>
       <c r="I17">
-        <v>0.02040143781614841</v>
+        <v>0.00146421766410356</v>
       </c>
       <c r="J17">
-        <v>0.01657019715016279</v>
+        <v>0.002149430949259074</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1488,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.52055350000001</v>
+        <v>33.9967575</v>
       </c>
       <c r="N17">
-        <v>131.041107</v>
+        <v>67.993515</v>
       </c>
       <c r="O17">
-        <v>0.4973260021852153</v>
+        <v>0.1734871988362492</v>
       </c>
       <c r="P17">
-        <v>0.4040993030123017</v>
+        <v>0.156567042520821</v>
       </c>
       <c r="Q17">
-        <v>59.94950463727875</v>
+        <v>1.2663905491275</v>
       </c>
       <c r="R17">
-        <v>239.798018549115</v>
+        <v>7.598343294765001</v>
       </c>
       <c r="S17">
-        <v>0.01014616550793536</v>
+        <v>0.0002540230210318825</v>
       </c>
       <c r="T17">
-        <v>0.006696005119157211</v>
+        <v>0.0003365300468282139</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1526,25 +1523,25 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.9149725</v>
+        <v>0.03725033333333334</v>
       </c>
       <c r="H18">
-        <v>1.829945</v>
+        <v>0.111751</v>
       </c>
       <c r="I18">
-        <v>0.02040143781614841</v>
+        <v>0.00146421766410356</v>
       </c>
       <c r="J18">
-        <v>0.01657019715016279</v>
+        <v>0.002149430949259074</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.57371366666667</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N18">
-        <v>55.721141</v>
+        <v>126.222638</v>
       </c>
       <c r="O18">
-        <v>0.1409815740273963</v>
+        <v>0.2147068672293418</v>
       </c>
       <c r="P18">
-        <v>0.1718306167937836</v>
+        <v>0.2906498528695889</v>
       </c>
       <c r="Q18">
-        <v>16.99443722787417</v>
+        <v>1.567278446570889</v>
       </c>
       <c r="R18">
-        <v>101.966623367245</v>
+        <v>14.105506019138</v>
       </c>
       <c r="S18">
-        <v>0.002876226815742649</v>
+        <v>0.0003143775876015401</v>
       </c>
       <c r="T18">
-        <v>0.002847267196707066</v>
+        <v>0.0006247317891554906</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -1588,55 +1585,55 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.9149725</v>
+        <v>0.03725033333333334</v>
       </c>
       <c r="H19">
-        <v>1.829945</v>
+        <v>0.111751</v>
       </c>
       <c r="I19">
-        <v>0.02040143781614841</v>
+        <v>0.00146421766410356</v>
       </c>
       <c r="J19">
-        <v>0.01657019715016279</v>
+        <v>0.002149430949259074</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.1273243333333333</v>
+        <v>0.1097226666666667</v>
       </c>
       <c r="N19">
-        <v>0.381973</v>
+        <v>0.329168</v>
       </c>
       <c r="O19">
-        <v>0.0009664402740059944</v>
+        <v>0.0005599204009042182</v>
       </c>
       <c r="P19">
-        <v>0.001177912996946202</v>
+        <v>0.0007579672892700664</v>
       </c>
       <c r="Q19">
-        <v>0.1164982635808333</v>
+        <v>0.004087205907555556</v>
       </c>
       <c r="R19">
-        <v>0.698989581485</v>
+        <v>0.036784853168</v>
       </c>
       <c r="S19">
-        <v>1.971677115315472E-05</v>
+        <v>8.198453414959032E-07</v>
       </c>
       <c r="T19">
-        <v>1.951825058513766E-05</v>
+        <v>1.629198350083086E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>19.66620666666667</v>
+        <v>0.03725033333333334</v>
       </c>
       <c r="H20">
-        <v>58.99862</v>
+        <v>0.111751</v>
       </c>
       <c r="I20">
-        <v>0.4385037718505455</v>
+        <v>0.00146421766410356</v>
       </c>
       <c r="J20">
-        <v>0.5342339605767044</v>
+        <v>0.002149430949259074</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.437025499999999</v>
+        <v>119.609489</v>
       </c>
       <c r="N20">
-        <v>10.874051</v>
+        <v>239.218978</v>
       </c>
       <c r="O20">
-        <v>0.0412690981875492</v>
+        <v>0.6103733628374751</v>
       </c>
       <c r="P20">
-        <v>0.0335329617600088</v>
+        <v>0.5508438253311854</v>
       </c>
       <c r="Q20">
-        <v>106.9256671349366</v>
+        <v>4.455493335079667</v>
       </c>
       <c r="R20">
-        <v>641.5540028096199</v>
+        <v>26.732960010478</v>
       </c>
       <c r="S20">
-        <v>0.01809665521611084</v>
+        <v>0.0008937194595649223</v>
       </c>
       <c r="T20">
-        <v>0.01791444697091667</v>
+        <v>0.001184000766375109</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,303 +1709,55 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>19.66620666666667</v>
+        <v>0.03725033333333334</v>
       </c>
       <c r="H21">
-        <v>58.99862</v>
+        <v>0.111751</v>
       </c>
       <c r="I21">
-        <v>0.4385037718505455</v>
+        <v>0.00146421766410356</v>
       </c>
       <c r="J21">
-        <v>0.5342339605767044</v>
+        <v>0.002149430949259074</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>42.07421266666667</v>
+        <v>0.1710056666666666</v>
       </c>
       <c r="N21">
-        <v>126.222638</v>
+        <v>0.5130169999999999</v>
       </c>
       <c r="O21">
-        <v>0.3193593286815545</v>
+        <v>0.0008726506960296239</v>
       </c>
       <c r="P21">
-        <v>0.3892403018250912</v>
+        <v>0.001181311989134611</v>
       </c>
       <c r="Q21">
-        <v>827.4401616399512</v>
+        <v>0.006370018085222222</v>
       </c>
       <c r="R21">
-        <v>7446.96145475956</v>
+        <v>0.057330162767</v>
       </c>
       <c r="S21">
-        <v>0.1400402702025198</v>
+        <v>1.277750563718841E-06</v>
       </c>
       <c r="T21">
-        <v>0.2079453880600903</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>19.66620666666667</v>
-      </c>
-      <c r="H22">
-        <v>58.99862</v>
-      </c>
-      <c r="I22">
-        <v>0.4385037718505455</v>
-      </c>
-      <c r="J22">
-        <v>0.5342339605767044</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.01285266666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.038558</v>
-      </c>
-      <c r="O22">
-        <v>9.755664427884464E-05</v>
-      </c>
-      <c r="P22">
-        <v>0.0001189036118685133</v>
-      </c>
-      <c r="Q22">
-        <v>0.2527631988844444</v>
-      </c>
-      <c r="R22">
-        <v>2.27486878996</v>
-      </c>
-      <c r="S22">
-        <v>4.277895648535532E-05</v>
-      </c>
-      <c r="T22">
-        <v>6.352234749539111E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>19.66620666666667</v>
-      </c>
-      <c r="H23">
-        <v>58.99862</v>
-      </c>
-      <c r="I23">
-        <v>0.4385037718505455</v>
-      </c>
-      <c r="J23">
-        <v>0.5342339605767044</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>65.52055350000001</v>
-      </c>
-      <c r="N23">
-        <v>131.041107</v>
-      </c>
-      <c r="O23">
-        <v>0.4973260021852153</v>
-      </c>
-      <c r="P23">
-        <v>0.4040993030123017</v>
-      </c>
-      <c r="Q23">
-        <v>1288.54074604539</v>
-      </c>
-      <c r="R23">
-        <v>7731.244476272341</v>
-      </c>
-      <c r="S23">
-        <v>0.2180793277975695</v>
-      </c>
-      <c r="T23">
-        <v>0.2158835711145477</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>19.66620666666667</v>
-      </c>
-      <c r="H24">
-        <v>58.99862</v>
-      </c>
-      <c r="I24">
-        <v>0.4385037718505455</v>
-      </c>
-      <c r="J24">
-        <v>0.5342339605767044</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>18.57371366666667</v>
-      </c>
-      <c r="N24">
-        <v>55.721141</v>
-      </c>
-      <c r="O24">
-        <v>0.1409815740273963</v>
-      </c>
-      <c r="P24">
-        <v>0.1718306167937836</v>
-      </c>
-      <c r="Q24">
-        <v>365.2744915361578</v>
-      </c>
-      <c r="R24">
-        <v>3287.47042382542</v>
-      </c>
-      <c r="S24">
-        <v>0.06182095197244017</v>
-      </c>
-      <c r="T24">
-        <v>0.09179775095808096</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>19.66620666666667</v>
-      </c>
-      <c r="H25">
-        <v>58.99862</v>
-      </c>
-      <c r="I25">
-        <v>0.4385037718505455</v>
-      </c>
-      <c r="J25">
-        <v>0.5342339605767044</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.1273243333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.381973</v>
-      </c>
-      <c r="O25">
-        <v>0.0009664402740059944</v>
-      </c>
-      <c r="P25">
-        <v>0.001177912996946202</v>
-      </c>
-      <c r="Q25">
-        <v>2.503986653028889</v>
-      </c>
-      <c r="R25">
-        <v>22.53587987726</v>
-      </c>
-      <c r="S25">
-        <v>0.0004237877054199032</v>
-      </c>
-      <c r="T25">
-        <v>0.0006292811255733449</v>
+        <v>2.539148550176731E-06</v>
       </c>
     </row>
   </sheetData>
